--- a/H1299_143B_prot-nucl-quant/asp_fate2_plotting.xlsx
+++ b/H1299_143B_prot-nucl-quant/asp_fate2_plotting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D66D0F-6DD1-4B41-A6DA-C464CD3AE7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBF84D-BCF3-B343-8498-E6171795A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="500" windowWidth="15600" windowHeight="16940" xr2:uid="{96961A33-5BBA-EA46-B305-5489BA3E3D07}"/>
+    <workbookView xWindow="12800" yWindow="500" windowWidth="15600" windowHeight="16940" xr2:uid="{96961A33-5BBA-EA46-B305-5489BA3E3D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Fate</t>
   </si>
@@ -63,12 +63,19 @@
   </si>
   <si>
     <t>Efflux (Asn)*</t>
+  </si>
+  <si>
+    <t>Nitrogen donation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -105,9 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EFD672-27F5-664A-8554-7BDD52A93908}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,84 +449,104 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>2.8811806680117367</v>
       </c>
-      <c r="C2">
-        <v>23.742377615276787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>22.506422512238206</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2.5852671763866919</v>
       </c>
-      <c r="C3">
-        <v>21.303901632975688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>20.194886084298453</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.9992346314044964</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15.617076643284319</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="2">
         <v>1.5980613096557379</v>
       </c>
-      <c r="C4">
-        <v>13.16882883723963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>12.483300139728085</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="2">
         <v>1.3328230876029976</v>
       </c>
-      <c r="C5">
-        <v>10.983132502435838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.3328230876029976</v>
-      </c>
-      <c r="C6">
-        <v>10.983132502435838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>10.411384428856213</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2.405026389683901</v>
       </c>
-      <c r="C7">
-        <v>19.818626909636201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>18.786930191594713</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
